--- a/downloads/10-MSA-List.xlsx
+++ b/downloads/10-MSA-List.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmvolker/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFC5A3-FE41-E947-B886-CF3C8F404276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0273754-AEAE-FF4D-8A41-EBB584380588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="1020" windowWidth="27240" windowHeight="15600" xr2:uid="{EE9F29AE-169D-B244-9F5D-FBAF51853A90}"/>
+    <workbookView xWindow="1560" yWindow="1020" windowWidth="27240" windowHeight="15600" xr2:uid="{EE9F29AE-169D-B244-9F5D-FBAF51853A90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +404,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
